--- a/natmiOut/OldD4/LR-pairs_lrc2p/Alcam-Nrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Alcam-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.872583963202693</v>
+        <v>0.1148053333333333</v>
       </c>
       <c r="H2">
-        <v>0.872583963202693</v>
+        <v>0.344416</v>
       </c>
       <c r="I2">
-        <v>0.0132789799571853</v>
+        <v>0.001467477634511064</v>
       </c>
       <c r="J2">
-        <v>0.0132789799571853</v>
+        <v>0.001475896741204689</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N2">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O2">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P2">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q2">
-        <v>91.6853527071589</v>
+        <v>12.53040177797689</v>
       </c>
       <c r="R2">
-        <v>91.6853527071589</v>
+        <v>112.773616001792</v>
       </c>
       <c r="S2">
-        <v>0.00467010138236598</v>
+        <v>0.0005188328942066963</v>
       </c>
       <c r="T2">
-        <v>0.00467010138236598</v>
+        <v>0.000539581896969186</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.872583963202693</v>
+        <v>0.1148053333333333</v>
       </c>
       <c r="H3">
-        <v>0.872583963202693</v>
+        <v>0.344416</v>
       </c>
       <c r="I3">
-        <v>0.0132789799571853</v>
+        <v>0.001467477634511064</v>
       </c>
       <c r="J3">
-        <v>0.0132789799571853</v>
+        <v>0.001475896741204689</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N3">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O3">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P3">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q3">
-        <v>39.12576465809504</v>
+        <v>5.508454607733333</v>
       </c>
       <c r="R3">
-        <v>39.12576465809504</v>
+        <v>49.5760914696</v>
       </c>
       <c r="S3">
-        <v>0.001992916886075616</v>
+        <v>0.0002280826662525369</v>
       </c>
       <c r="T3">
-        <v>0.001992916886075616</v>
+        <v>0.0002372040768743248</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.872583963202693</v>
+        <v>0.1148053333333333</v>
       </c>
       <c r="H4">
-        <v>0.872583963202693</v>
+        <v>0.344416</v>
       </c>
       <c r="I4">
-        <v>0.0132789799571853</v>
+        <v>0.001467477634511064</v>
       </c>
       <c r="J4">
-        <v>0.0132789799571853</v>
+        <v>0.001475896741204689</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N4">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O4">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P4">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q4">
-        <v>53.44609704180255</v>
+        <v>7.148631908906665</v>
       </c>
       <c r="R4">
-        <v>53.44609704180255</v>
+        <v>64.33768718016</v>
       </c>
       <c r="S4">
-        <v>0.002722339875532807</v>
+        <v>0.0002959957269235478</v>
       </c>
       <c r="T4">
-        <v>0.002722339875532807</v>
+        <v>0.0003078330954177187</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.872583963202693</v>
+        <v>0.1148053333333333</v>
       </c>
       <c r="H5">
-        <v>0.872583963202693</v>
+        <v>0.344416</v>
       </c>
       <c r="I5">
-        <v>0.0132789799571853</v>
+        <v>0.001467477634511064</v>
       </c>
       <c r="J5">
-        <v>0.0132789799571853</v>
+        <v>0.001475896741204689</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N5">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O5">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P5">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q5">
-        <v>49.91447208684517</v>
+        <v>6.751736860302223</v>
       </c>
       <c r="R5">
-        <v>49.91447208684517</v>
+        <v>60.76563174272</v>
       </c>
       <c r="S5">
-        <v>0.002542452400629121</v>
+        <v>0.0002795619197390348</v>
       </c>
       <c r="T5">
-        <v>0.002542452400629121</v>
+        <v>0.000290742072558415</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.872583963202693</v>
+        <v>0.1148053333333333</v>
       </c>
       <c r="H6">
-        <v>0.872583963202693</v>
+        <v>0.344416</v>
       </c>
       <c r="I6">
-        <v>0.0132789799571853</v>
+        <v>0.001467477634511064</v>
       </c>
       <c r="J6">
-        <v>0.0132789799571853</v>
+        <v>0.001475896741204689</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N6">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O6">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P6">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q6">
-        <v>26.52671409392894</v>
+        <v>3.502021084362667</v>
       </c>
       <c r="R6">
-        <v>26.52671409392894</v>
+        <v>21.012126506176</v>
       </c>
       <c r="S6">
-        <v>0.001351169412581774</v>
+        <v>0.0001450044273892481</v>
       </c>
       <c r="T6">
-        <v>0.001351169412581774</v>
+        <v>0.0001005355993850441</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>25.0474994819281</v>
+        <v>1.097022333333333</v>
       </c>
       <c r="H7">
-        <v>25.0474994819281</v>
+        <v>3.291067</v>
       </c>
       <c r="I7">
-        <v>0.3811727668903667</v>
+        <v>0.01402248216162264</v>
       </c>
       <c r="J7">
-        <v>0.3811727668903667</v>
+        <v>0.01410293093348245</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N7">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O7">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P7">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q7">
-        <v>2631.8256136682</v>
+        <v>119.7342509878782</v>
       </c>
       <c r="R7">
-        <v>2631.8256136682</v>
+        <v>1077.608258890904</v>
       </c>
       <c r="S7">
-        <v>0.1340551361109436</v>
+        <v>0.004957707588027703</v>
       </c>
       <c r="T7">
-        <v>0.1340551361109436</v>
+        <v>0.005155974678623201</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.0474994819281</v>
+        <v>1.097022333333333</v>
       </c>
       <c r="H8">
-        <v>25.0474994819281</v>
+        <v>3.291067</v>
       </c>
       <c r="I8">
-        <v>0.3811727668903667</v>
+        <v>0.01402248216162264</v>
       </c>
       <c r="J8">
-        <v>0.3811727668903667</v>
+        <v>0.01410293093348245</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N8">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O8">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P8">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q8">
-        <v>1123.10403506239</v>
+        <v>52.63603659675834</v>
       </c>
       <c r="R8">
-        <v>1123.10403506239</v>
+        <v>473.724329370825</v>
       </c>
       <c r="S8">
-        <v>0.0572066262692813</v>
+        <v>0.002179443859099861</v>
       </c>
       <c r="T8">
-        <v>0.0572066262692813</v>
+        <v>0.00226660349596579</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.0474994819281</v>
+        <v>1.097022333333333</v>
       </c>
       <c r="H9">
-        <v>25.0474994819281</v>
+        <v>3.291067</v>
       </c>
       <c r="I9">
-        <v>0.3811727668903667</v>
+        <v>0.01402248216162264</v>
       </c>
       <c r="J9">
-        <v>0.3811727668903667</v>
+        <v>0.01410293093348245</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N9">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O9">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P9">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q9">
-        <v>1534.168795690625</v>
+        <v>68.30875037904666</v>
       </c>
       <c r="R9">
-        <v>1534.168795690625</v>
+        <v>614.77875341142</v>
       </c>
       <c r="S9">
-        <v>0.07814469380318051</v>
+        <v>0.002828387092989582</v>
       </c>
       <c r="T9">
-        <v>0.07814469380318051</v>
+        <v>0.002941499064611126</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.0474994819281</v>
+        <v>1.097022333333333</v>
       </c>
       <c r="H10">
-        <v>25.0474994819281</v>
+        <v>3.291067</v>
       </c>
       <c r="I10">
-        <v>0.3811727668903667</v>
+        <v>0.01402248216162264</v>
       </c>
       <c r="J10">
-        <v>0.3811727668903667</v>
+        <v>0.01410293093348245</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N10">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O10">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P10">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q10">
-        <v>1432.793595182716</v>
+        <v>64.51621984351556</v>
       </c>
       <c r="R10">
-        <v>1432.793595182716</v>
+        <v>580.6459785916401</v>
       </c>
       <c r="S10">
-        <v>0.07298102861511334</v>
+        <v>0.002671353852636887</v>
       </c>
       <c r="T10">
-        <v>0.07298102861511334</v>
+        <v>0.00277818580004589</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.0474994819281</v>
+        <v>1.097022333333333</v>
       </c>
       <c r="H11">
-        <v>25.0474994819281</v>
+        <v>3.291067</v>
       </c>
       <c r="I11">
-        <v>0.3811727668903667</v>
+        <v>0.01402248216162264</v>
       </c>
       <c r="J11">
-        <v>0.3811727668903667</v>
+        <v>0.01410293093348245</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N11">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O11">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P11">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q11">
-        <v>761.4486233350586</v>
+        <v>33.46356157684367</v>
       </c>
       <c r="R11">
-        <v>761.4486233350586</v>
+        <v>200.781369461062</v>
       </c>
       <c r="S11">
-        <v>0.03878528209184792</v>
+        <v>0.001385589768868609</v>
       </c>
       <c r="T11">
-        <v>0.03878528209184792</v>
+        <v>0.0009606678942364437</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.656137263289</v>
+        <v>29.088399</v>
       </c>
       <c r="H12">
-        <v>38.656137263289</v>
+        <v>87.265197</v>
       </c>
       <c r="I12">
-        <v>0.5882689730594789</v>
+        <v>0.3718170028938899</v>
       </c>
       <c r="J12">
-        <v>0.5882689730594789</v>
+        <v>0.3739501645477712</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N12">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O12">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P12">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q12">
-        <v>4061.731281735366</v>
+        <v>3174.846637915496</v>
       </c>
       <c r="R12">
-        <v>4061.731281735366</v>
+        <v>28573.61974123946</v>
       </c>
       <c r="S12">
-        <v>0.2068890647584364</v>
+        <v>0.1314574663285896</v>
       </c>
       <c r="T12">
-        <v>0.2068890647584364</v>
+        <v>0.136714672189009</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.656137263289</v>
+        <v>29.088399</v>
       </c>
       <c r="H13">
-        <v>38.656137263289</v>
+        <v>87.265197</v>
       </c>
       <c r="I13">
-        <v>0.5882689730594789</v>
+        <v>0.3718170028938899</v>
       </c>
       <c r="J13">
-        <v>0.5882689730594789</v>
+        <v>0.3739501645477712</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N13">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O13">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P13">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q13">
-        <v>1733.301313037236</v>
+        <v>1395.685381949175</v>
       </c>
       <c r="R13">
-        <v>1733.301313037236</v>
+        <v>12561.16843754258</v>
       </c>
       <c r="S13">
-        <v>0.08828774301524746</v>
+        <v>0.05778964624992126</v>
       </c>
       <c r="T13">
-        <v>0.08828774301524746</v>
+        <v>0.06010075170038875</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>38.656137263289</v>
+        <v>29.088399</v>
       </c>
       <c r="H14">
-        <v>38.656137263289</v>
+        <v>87.265197</v>
       </c>
       <c r="I14">
-        <v>0.5882689730594789</v>
+        <v>0.3718170028938899</v>
       </c>
       <c r="J14">
-        <v>0.5882689730594789</v>
+        <v>0.3739501645477712</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N14">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O14">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P14">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q14">
-        <v>2367.702995425171</v>
+        <v>1811.25955766058</v>
       </c>
       <c r="R14">
-        <v>2367.702995425171</v>
+        <v>16301.33601894522</v>
       </c>
       <c r="S14">
-        <v>0.1206017395961197</v>
+        <v>0.0749968799972754</v>
       </c>
       <c r="T14">
-        <v>0.1206017395961197</v>
+        <v>0.07799613175562989</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>38.656137263289</v>
+        <v>29.088399</v>
       </c>
       <c r="H15">
-        <v>38.656137263289</v>
+        <v>87.265197</v>
       </c>
       <c r="I15">
-        <v>0.5882689730594789</v>
+        <v>0.3718170028938899</v>
       </c>
       <c r="J15">
-        <v>0.5882689730594789</v>
+        <v>0.3739501645477712</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N15">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O15">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P15">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q15">
-        <v>2211.24930755287</v>
+        <v>1710.69766563236</v>
       </c>
       <c r="R15">
-        <v>2211.24930755287</v>
+        <v>15396.27899069124</v>
       </c>
       <c r="S15">
-        <v>0.1126325868096066</v>
+        <v>0.07083302169389652</v>
       </c>
       <c r="T15">
-        <v>0.1126325868096066</v>
+        <v>0.07366575373385204</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>38.656137263289</v>
+        <v>29.088399</v>
       </c>
       <c r="H16">
-        <v>38.656137263289</v>
+        <v>87.265197</v>
       </c>
       <c r="I16">
-        <v>0.5882689730594789</v>
+        <v>0.3718170028938899</v>
       </c>
       <c r="J16">
-        <v>0.5882689730594789</v>
+        <v>0.3739501645477712</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N16">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O16">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P16">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q16">
-        <v>1175.153732364372</v>
+        <v>887.312319477207</v>
       </c>
       <c r="R16">
-        <v>1175.153732364372</v>
+        <v>5323.873916863242</v>
       </c>
       <c r="S16">
-        <v>0.05985783888006874</v>
+        <v>0.03673998862420716</v>
       </c>
       <c r="T16">
-        <v>0.05985783888006874</v>
+        <v>0.02547285516889155</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.13545036994005</v>
+        <v>46.59406033333334</v>
       </c>
       <c r="H17">
-        <v>1.13545036994005</v>
+        <v>139.782181</v>
       </c>
       <c r="I17">
-        <v>0.01727928009296931</v>
+        <v>0.5955798346205676</v>
       </c>
       <c r="J17">
-        <v>0.01727928009296931</v>
+        <v>0.5989967522309764</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N17">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O17">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P17">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q17">
-        <v>119.3056164673578</v>
+        <v>5085.498029510497</v>
       </c>
       <c r="R17">
-        <v>119.3056164673578</v>
+        <v>45769.48226559447</v>
       </c>
       <c r="S17">
-        <v>0.006076972034647891</v>
+        <v>0.2105697572898886</v>
       </c>
       <c r="T17">
-        <v>0.006076972034647891</v>
+        <v>0.2189907971362251</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.13545036994005</v>
+        <v>46.59406033333334</v>
       </c>
       <c r="H18">
-        <v>1.13545036994005</v>
+        <v>139.782181</v>
       </c>
       <c r="I18">
-        <v>0.01727928009296931</v>
+        <v>0.5955798346205676</v>
       </c>
       <c r="J18">
-        <v>0.01727928009296931</v>
+        <v>0.5989967522309764</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N18">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O18">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P18">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q18">
-        <v>50.91242313480583</v>
+        <v>2235.621454893109</v>
       </c>
       <c r="R18">
-        <v>50.91242313480583</v>
+        <v>20120.59309403798</v>
       </c>
       <c r="S18">
-        <v>0.002593284212156315</v>
+        <v>0.09256797749545521</v>
       </c>
       <c r="T18">
-        <v>0.002593284212156315</v>
+        <v>0.09626992708696687</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.13545036994005</v>
+        <v>46.59406033333334</v>
       </c>
       <c r="H19">
-        <v>1.13545036994005</v>
+        <v>139.782181</v>
       </c>
       <c r="I19">
-        <v>0.01727928009296931</v>
+        <v>0.5955798346205676</v>
       </c>
       <c r="J19">
-        <v>0.01727928009296931</v>
+        <v>0.5989967522309764</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N19">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O19">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P19">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q19">
-        <v>69.54676365496059</v>
+        <v>2901.291924281007</v>
       </c>
       <c r="R19">
-        <v>69.54676365496059</v>
+        <v>26111.62731852906</v>
       </c>
       <c r="S19">
-        <v>0.003542446284975152</v>
+        <v>0.1201306799801808</v>
       </c>
       <c r="T19">
-        <v>0.003542446284975152</v>
+        <v>0.124934908545102</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.13545036994005</v>
+        <v>46.59406033333334</v>
       </c>
       <c r="H20">
-        <v>1.13545036994005</v>
+        <v>139.782181</v>
       </c>
       <c r="I20">
-        <v>0.01727928009296931</v>
+        <v>0.5955798346205676</v>
       </c>
       <c r="J20">
-        <v>0.01727928009296931</v>
+        <v>0.5989967522309764</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N20">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O20">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P20">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q20">
-        <v>64.95123470794923</v>
+        <v>2740.210977048503</v>
       </c>
       <c r="R20">
-        <v>64.95123470794923</v>
+        <v>24661.89879343653</v>
       </c>
       <c r="S20">
-        <v>0.003308367607689714</v>
+        <v>0.1134609741291614</v>
       </c>
       <c r="T20">
-        <v>0.003308367607689714</v>
+        <v>0.1179984699046371</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>46.59406033333334</v>
+      </c>
+      <c r="H21">
+        <v>139.782181</v>
+      </c>
+      <c r="I21">
+        <v>0.5955798346205676</v>
+      </c>
+      <c r="J21">
+        <v>0.5989967522309764</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>30.503993</v>
+      </c>
+      <c r="N21">
+        <v>61.007986</v>
+      </c>
+      <c r="O21">
+        <v>0.09881201864964768</v>
+      </c>
+      <c r="P21">
+        <v>0.06811831517629259</v>
+      </c>
+      <c r="Q21">
+        <v>1421.304890249578</v>
+      </c>
+      <c r="R21">
+        <v>8527.829341497467</v>
+      </c>
+      <c r="S21">
+        <v>0.05885044572588161</v>
+      </c>
+      <c r="T21">
+        <v>0.04080264955804529</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.338819</v>
+      </c>
+      <c r="H22">
+        <v>2.677638</v>
+      </c>
+      <c r="I22">
+        <v>0.01711320268940875</v>
+      </c>
+      <c r="J22">
+        <v>0.01147425554656532</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>109.1447706666667</v>
+      </c>
+      <c r="N22">
+        <v>327.434312</v>
+      </c>
+      <c r="O22">
+        <v>0.3535542089399963</v>
+      </c>
+      <c r="P22">
+        <v>0.3655959674582361</v>
+      </c>
+      <c r="Q22">
+        <v>146.125092719176</v>
+      </c>
+      <c r="R22">
+        <v>876.750556315056</v>
+      </c>
+      <c r="S22">
+        <v>0.006050444839283729</v>
+      </c>
+      <c r="T22">
+        <v>0.004194941557409578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.338819</v>
+      </c>
+      <c r="H23">
+        <v>2.677638</v>
+      </c>
+      <c r="I23">
+        <v>0.01711320268940875</v>
+      </c>
+      <c r="J23">
+        <v>0.01147425554656532</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>47.980825</v>
+      </c>
+      <c r="N23">
+        <v>143.942475</v>
+      </c>
+      <c r="O23">
+        <v>0.155424969272891</v>
+      </c>
+      <c r="P23">
+        <v>0.1607186127944892</v>
+      </c>
+      <c r="Q23">
+        <v>64.237640145675</v>
+      </c>
+      <c r="R23">
+        <v>385.42584087405</v>
+      </c>
+      <c r="S23">
+        <v>0.00265981900216211</v>
+      </c>
+      <c r="T23">
+        <v>0.001844126434293451</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.338819</v>
+      </c>
+      <c r="H24">
+        <v>2.677638</v>
+      </c>
+      <c r="I24">
+        <v>0.01711320268940875</v>
+      </c>
+      <c r="J24">
+        <v>0.01147425554656532</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>62.26741999999999</v>
+      </c>
+      <c r="N24">
+        <v>186.80226</v>
+      </c>
+      <c r="O24">
+        <v>0.2017037397794264</v>
+      </c>
+      <c r="P24">
+        <v>0.2085735992386923</v>
+      </c>
+      <c r="Q24">
+        <v>83.36480497698</v>
+      </c>
+      <c r="R24">
+        <v>500.18882986188</v>
+      </c>
+      <c r="S24">
+        <v>0.003451796982057082</v>
+      </c>
+      <c r="T24">
+        <v>0.002393226777931657</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.13545036994005</v>
-      </c>
-      <c r="H21">
-        <v>1.13545036994005</v>
-      </c>
-      <c r="I21">
-        <v>0.01727928009296931</v>
-      </c>
-      <c r="J21">
-        <v>0.01727928009296931</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>30.4001852114798</v>
-      </c>
-      <c r="N21">
-        <v>30.4001852114798</v>
-      </c>
-      <c r="O21">
-        <v>0.1017525003379987</v>
-      </c>
-      <c r="P21">
-        <v>0.1017525003379987</v>
-      </c>
-      <c r="Q21">
-        <v>34.51790154462078</v>
-      </c>
-      <c r="R21">
-        <v>34.51790154462078</v>
-      </c>
-      <c r="S21">
-        <v>0.001758209953500233</v>
-      </c>
-      <c r="T21">
-        <v>0.001758209953500233</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.338819</v>
+      </c>
+      <c r="H25">
+        <v>2.677638</v>
+      </c>
+      <c r="I25">
+        <v>0.01711320268940875</v>
+      </c>
+      <c r="J25">
+        <v>0.01147425554656532</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>58.81030666666667</v>
+      </c>
+      <c r="N25">
+        <v>176.43092</v>
+      </c>
+      <c r="O25">
+        <v>0.1905050633580386</v>
+      </c>
+      <c r="P25">
+        <v>0.1969935053322898</v>
+      </c>
+      <c r="Q25">
+        <v>78.73635596116</v>
+      </c>
+      <c r="R25">
+        <v>472.41813576696</v>
+      </c>
+      <c r="S25">
+        <v>0.00326015176260477</v>
+      </c>
+      <c r="T25">
+        <v>0.002260353821196371</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.338819</v>
+      </c>
+      <c r="H26">
+        <v>2.677638</v>
+      </c>
+      <c r="I26">
+        <v>0.01711320268940875</v>
+      </c>
+      <c r="J26">
+        <v>0.01147425554656532</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>30.503993</v>
+      </c>
+      <c r="N26">
+        <v>61.007986</v>
+      </c>
+      <c r="O26">
+        <v>0.09881201864964768</v>
+      </c>
+      <c r="P26">
+        <v>0.06811831517629259</v>
+      </c>
+      <c r="Q26">
+        <v>40.839325404267</v>
+      </c>
+      <c r="R26">
+        <v>163.357301617068</v>
+      </c>
+      <c r="S26">
+        <v>0.001690990103301058</v>
+      </c>
+      <c r="T26">
+        <v>0.0007816069557342596</v>
       </c>
     </row>
   </sheetData>
